--- a/uploads/sandbox_ComputerGold_excel.xlsx
+++ b/uploads/sandbox_ComputerGold_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C97262-99B8-4CC7-A5FB-43BA3273018E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D91064-AF5C-4DE3-AC52-35D5792ADF1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{760F17F9-C6B3-41C5-B918-0FB8C401C1FD}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="727">
   <si>
     <t>sellerBusinessName</t>
   </si>
@@ -2151,9 +2151,6 @@
     <t>Registered</t>
   </si>
   <si>
-    <t>P.O#/DATE</t>
-  </si>
-  <si>
     <t>Computer Gold Printing and Packaging (Pvt) Ltd</t>
   </si>
   <si>
@@ -2212,6 +2209,15 @@
   </si>
   <si>
     <t>01</t>
+  </si>
+  <si>
+    <t>PO#</t>
+  </si>
+  <si>
+    <t>(Delivery Challan Number / Date)</t>
+  </si>
+  <si>
+    <t>134 / 08-07-2025</t>
   </si>
 </sst>
 </file>
@@ -2402,7 +2408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2531,7 +2537,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2868,8 +2873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E7F905-168E-44F5-986A-893891B51600}">
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="113" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2895,28 +2900,28 @@
     <col min="19" max="19" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -2924,39 +2929,39 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>698</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
     </row>
-    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
@@ -2964,7 +2969,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -2972,25 +2977,31 @@
         <v>700</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="54" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="B13" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>697</v>
       </c>
@@ -3001,7 +3012,7 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
@@ -3009,7 +3020,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
@@ -3025,7 +3036,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
@@ -3033,7 +3044,7 @@
         <v>699</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
@@ -3046,7 +3057,7 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="18" x14ac:dyDescent="0.35">
@@ -3115,31 +3126,31 @@
     </row>
     <row r="27" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>714</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>716</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>31</v>
@@ -3154,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/sandbox_ComputerGold_excel.xlsx
+++ b/uploads/sandbox_ComputerGold_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D91064-AF5C-4DE3-AC52-35D5792ADF1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9922ACDC-A353-4619-8236-75B9410D7EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{760F17F9-C6B3-41C5-B918-0FB8C401C1FD}"/>
   </bookViews>
@@ -2871,10 +2871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E7F905-168E-44F5-986A-893891B51600}">
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="89" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3168,6 +3168,9 @@
         <v>721</v>
       </c>
     </row>
+    <row r="28" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/uploads/sandbox_ComputerGold_excel.xlsx
+++ b/uploads/sandbox_ComputerGold_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9922ACDC-A353-4619-8236-75B9410D7EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2930E0A5-640A-4383-B12F-8FAC63F849E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{760F17F9-C6B3-41C5-B918-0FB8C401C1FD}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="729">
   <si>
     <t>sellerBusinessName</t>
   </si>
@@ -2214,10 +2214,16 @@
     <t>PO#</t>
   </si>
   <si>
-    <t>(Delivery Challan Number / Date)</t>
-  </si>
-  <si>
     <t>134 / 08-07-2025</t>
+  </si>
+  <si>
+    <t>132 / 08-07-2025</t>
+  </si>
+  <si>
+    <t>Enter Delivery Challan Number Here</t>
+  </si>
+  <si>
+    <t>Enter Puchase Order Number here</t>
   </si>
 </sst>
 </file>
@@ -2873,16 +2879,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E7F905-168E-44F5-986A-893891B51600}">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="89" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.21875" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="13.33203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="13.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.109375" style="1" customWidth="1"/>
@@ -2990,10 +2995,10 @@
         <v>724</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -3058,6 +3063,12 @@
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>722</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="18" x14ac:dyDescent="0.35">

--- a/uploads/sandbox_ComputerGold_excel.xlsx
+++ b/uploads/sandbox_ComputerGold_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2930E0A5-640A-4383-B12F-8FAC63F849E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A8171C-1099-40E9-B393-2E9426EB21A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{760F17F9-C6B3-41C5-B918-0FB8C401C1FD}"/>
   </bookViews>
@@ -2880,7 +2880,7 @@
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
